--- a/Model/BayesLSTM/Multivariate/result/Service/IND.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/IND.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>48.68234634399414</v>
+        <v>41.5989875793457</v>
       </c>
       <c r="C2" t="n">
-        <v>46.39999771118164</v>
+        <v>39.31624984741211</v>
       </c>
       <c r="D2" t="n">
-        <v>50.96469497680664</v>
+        <v>43.8817253112793</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>48.00164413452148</v>
+        <v>41.37065124511719</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03335952758789</v>
+        <v>38.56966781616211</v>
       </c>
       <c r="D3" t="n">
-        <v>50.96992874145508</v>
+        <v>44.17163467407227</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>48.18770217895508</v>
+        <v>41.01223754882812</v>
       </c>
       <c r="C4" t="n">
-        <v>44.30670547485352</v>
+        <v>37.83371353149414</v>
       </c>
       <c r="D4" t="n">
-        <v>52.06869888305664</v>
+        <v>44.19076156616211</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>47.68561553955078</v>
+        <v>40.95587921142578</v>
       </c>
       <c r="C5" t="n">
-        <v>44.93772125244141</v>
+        <v>37.98676300048828</v>
       </c>
       <c r="D5" t="n">
-        <v>50.43350982666016</v>
+        <v>43.92499542236328</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>47.54218292236328</v>
+        <v>41.03177642822266</v>
       </c>
       <c r="C6" t="n">
-        <v>44.40314483642578</v>
+        <v>37.68373489379883</v>
       </c>
       <c r="D6" t="n">
-        <v>50.68122100830078</v>
+        <v>44.37981796264648</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>48.15193557739258</v>
+        <v>40.37147903442383</v>
       </c>
       <c r="C7" t="n">
-        <v>44.23841857910156</v>
+        <v>37.51888275146484</v>
       </c>
       <c r="D7" t="n">
-        <v>52.06545257568359</v>
+        <v>43.22407531738281</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>47.97056198120117</v>
+        <v>40.70894622802734</v>
       </c>
       <c r="C8" t="n">
-        <v>43.52894973754883</v>
+        <v>38.15091705322266</v>
       </c>
       <c r="D8" t="n">
-        <v>52.41217422485352</v>
+        <v>43.26697540283203</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>47.70510482788086</v>
+        <v>40.92091751098633</v>
       </c>
       <c r="C9" t="n">
-        <v>43.33152389526367</v>
+        <v>37.73200225830078</v>
       </c>
       <c r="D9" t="n">
-        <v>52.07868576049805</v>
+        <v>44.10983276367188</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>48.215576171875</v>
+        <v>41.10202789306641</v>
       </c>
       <c r="C10" t="n">
-        <v>44.70130920410156</v>
+        <v>36.9736328125</v>
       </c>
       <c r="D10" t="n">
-        <v>51.72984313964844</v>
+        <v>45.23042297363281</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>47.97993850708008</v>
+        <v>40.83880996704102</v>
       </c>
       <c r="C11" t="n">
-        <v>44.64834594726562</v>
+        <v>37.74684143066406</v>
       </c>
       <c r="D11" t="n">
-        <v>51.31153106689453</v>
+        <v>43.93077850341797</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>47.50742721557617</v>
+        <v>40.46758270263672</v>
       </c>
       <c r="C12" t="n">
-        <v>43.8998908996582</v>
+        <v>37.87392425537109</v>
       </c>
       <c r="D12" t="n">
-        <v>51.11496353149414</v>
+        <v>43.06124114990234</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>47.3416633605957</v>
+        <v>40.90304946899414</v>
       </c>
       <c r="C13" t="n">
-        <v>43.33030700683594</v>
+        <v>37.51883316040039</v>
       </c>
       <c r="D13" t="n">
-        <v>51.35301971435547</v>
+        <v>44.28726577758789</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>47.59944534301758</v>
+        <v>41.12224578857422</v>
       </c>
       <c r="C14" t="n">
-        <v>43.74421310424805</v>
+        <v>37.9364013671875</v>
       </c>
       <c r="D14" t="n">
-        <v>51.45467758178711</v>
+        <v>44.30809020996094</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>47.3932991027832</v>
+        <v>40.46921539306641</v>
       </c>
       <c r="C15" t="n">
-        <v>44.10834884643555</v>
+        <v>38.20810317993164</v>
       </c>
       <c r="D15" t="n">
-        <v>50.67824935913086</v>
+        <v>42.73032760620117</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>48.13371276855469</v>
+        <v>40.58490371704102</v>
       </c>
       <c r="C16" t="n">
-        <v>44.31267929077148</v>
+        <v>38.24163818359375</v>
       </c>
       <c r="D16" t="n">
-        <v>51.95474624633789</v>
+        <v>42.92816925048828</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>47.94680023193359</v>
+        <v>40.25280380249023</v>
       </c>
       <c r="C17" t="n">
-        <v>44.88982391357422</v>
+        <v>38.50575256347656</v>
       </c>
       <c r="D17" t="n">
-        <v>51.00377655029297</v>
+        <v>41.99985504150391</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>48.51210784912109</v>
+        <v>40.55062103271484</v>
       </c>
       <c r="C18" t="n">
-        <v>44.88184356689453</v>
+        <v>37.18939971923828</v>
       </c>
       <c r="D18" t="n">
-        <v>52.14237213134766</v>
+        <v>43.91184234619141</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>48.07212066650391</v>
+        <v>40.66365432739258</v>
       </c>
       <c r="C19" t="n">
-        <v>44.18411254882812</v>
+        <v>37.83258056640625</v>
       </c>
       <c r="D19" t="n">
-        <v>51.96012878417969</v>
+        <v>43.49472808837891</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>49.12713623046875</v>
+        <v>40.46186065673828</v>
       </c>
       <c r="C20" t="n">
-        <v>46.64536285400391</v>
+        <v>37.02180099487305</v>
       </c>
       <c r="D20" t="n">
-        <v>51.60890960693359</v>
+        <v>43.90192031860352</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>48.70660781860352</v>
+        <v>40.08499145507812</v>
       </c>
       <c r="C21" t="n">
-        <v>45.72554016113281</v>
+        <v>36.69702911376953</v>
       </c>
       <c r="D21" t="n">
-        <v>51.68767547607422</v>
+        <v>43.47295379638672</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>48.5553092956543</v>
+        <v>40.36203765869141</v>
       </c>
       <c r="C22" t="n">
-        <v>45.62805557250977</v>
+        <v>37.52610015869141</v>
       </c>
       <c r="D22" t="n">
-        <v>51.48256301879883</v>
+        <v>43.19797515869141</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>48.79493713378906</v>
+        <v>40.69918060302734</v>
       </c>
       <c r="C23" t="n">
-        <v>46.66428375244141</v>
+        <v>37.74263381958008</v>
       </c>
       <c r="D23" t="n">
-        <v>50.92559051513672</v>
+        <v>43.65572738647461</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>48.47723388671875</v>
+        <v>40.00688171386719</v>
       </c>
       <c r="C24" t="n">
-        <v>46.0523567199707</v>
+        <v>36.53228759765625</v>
       </c>
       <c r="D24" t="n">
-        <v>50.9021110534668</v>
+        <v>43.48147583007812</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>48.81063079833984</v>
+        <v>40.72751617431641</v>
       </c>
       <c r="C25" t="n">
-        <v>45.42627334594727</v>
+        <v>36.89419174194336</v>
       </c>
       <c r="D25" t="n">
-        <v>52.19498825073242</v>
+        <v>44.56084060668945</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>48.47829055786133</v>
+        <v>40.92680358886719</v>
       </c>
       <c r="C26" t="n">
-        <v>45.20651245117188</v>
+        <v>37.21397399902344</v>
       </c>
       <c r="D26" t="n">
-        <v>51.75006866455078</v>
+        <v>44.63963317871094</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>48.18254852294922</v>
+        <v>40.02997589111328</v>
       </c>
       <c r="C27" t="n">
-        <v>44.66086196899414</v>
+        <v>37.5482177734375</v>
       </c>
       <c r="D27" t="n">
-        <v>51.7042350769043</v>
+        <v>42.51173400878906</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>48.07138824462891</v>
+        <v>40.70210647583008</v>
       </c>
       <c r="C28" t="n">
-        <v>44.6446647644043</v>
+        <v>37.80557250976562</v>
       </c>
       <c r="D28" t="n">
-        <v>51.49811172485352</v>
+        <v>43.59864044189453</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>48.06339263916016</v>
+        <v>41.06770706176758</v>
       </c>
       <c r="C29" t="n">
-        <v>45.30817413330078</v>
+        <v>38.66658020019531</v>
       </c>
       <c r="D29" t="n">
-        <v>50.81861114501953</v>
+        <v>43.46883392333984</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>48.44081878662109</v>
+        <v>41.43997192382812</v>
       </c>
       <c r="C30" t="n">
-        <v>44.56383895874023</v>
+        <v>38.84342575073242</v>
       </c>
       <c r="D30" t="n">
-        <v>52.31779861450195</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>48.3000373840332</v>
-      </c>
-      <c r="C31" t="n">
-        <v>45.34326171875</v>
-      </c>
-      <c r="D31" t="n">
-        <v>51.25681304931641</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>47.61702728271484</v>
-      </c>
-      <c r="C32" t="n">
-        <v>44.26104736328125</v>
-      </c>
-      <c r="D32" t="n">
-        <v>50.97300720214844</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>48.17501831054688</v>
-      </c>
-      <c r="C33" t="n">
-        <v>45.58517074584961</v>
-      </c>
-      <c r="D33" t="n">
-        <v>50.76486587524414</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>47.7877082824707</v>
-      </c>
-      <c r="C34" t="n">
-        <v>45.34587860107422</v>
-      </c>
-      <c r="D34" t="n">
-        <v>50.22953796386719</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>48.32900238037109</v>
-      </c>
-      <c r="C35" t="n">
-        <v>46.08122253417969</v>
-      </c>
-      <c r="D35" t="n">
-        <v>50.5767822265625</v>
+        <v>44.03651809692383</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>42.05985107421875</v>
+        <v>40.89356231689453</v>
       </c>
       <c r="C2" t="n">
-        <v>39.40322580708215</v>
+        <v>38.02868270874023</v>
       </c>
       <c r="D2" t="n">
-        <v>44.71647634135535</v>
+        <v>43.75844192504883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>43.39640350341797</v>
+        <v>41.89945983886719</v>
       </c>
       <c r="C3" t="n">
-        <v>40.69997337405811</v>
+        <v>37.78551864624023</v>
       </c>
       <c r="D3" t="n">
-        <v>46.09283363277783</v>
+        <v>46.01340103149414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>41.8434455871582</v>
+        <v>41.19257736206055</v>
       </c>
       <c r="C4" t="n">
-        <v>38.63987076586159</v>
+        <v>37.8128662109375</v>
       </c>
       <c r="D4" t="n">
-        <v>45.04702040845481</v>
+        <v>44.57228851318359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>43.93194847106933</v>
+        <v>41.07915496826172</v>
       </c>
       <c r="C5" t="n">
-        <v>40.0542757505436</v>
+        <v>38.33195114135742</v>
       </c>
       <c r="D5" t="n">
-        <v>47.80962119159507</v>
+        <v>43.82635879516602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>49.29393692016602</v>
+        <v>40.91347503662109</v>
       </c>
       <c r="C6" t="n">
-        <v>45.87129161041129</v>
+        <v>37.82174682617188</v>
       </c>
       <c r="D6" t="n">
-        <v>52.71658222992075</v>
+        <v>44.00520324707031</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>46.07584381103516</v>
+        <v>44.68887710571289</v>
       </c>
       <c r="C2" t="n">
-        <v>43.73945617675781</v>
+        <v>42.11326599121094</v>
       </c>
       <c r="D2" t="n">
-        <v>48.4122314453125</v>
+        <v>47.26448822021484</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>45.53490447998047</v>
+        <v>43.85972213745117</v>
       </c>
       <c r="C3" t="n">
-        <v>42.94044876098633</v>
+        <v>41.31869506835938</v>
       </c>
       <c r="D3" t="n">
-        <v>48.12936019897461</v>
+        <v>46.40074920654297</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>45.63731002807617</v>
+        <v>43.28215789794922</v>
       </c>
       <c r="C4" t="n">
-        <v>42.43973159790039</v>
+        <v>40.51534652709961</v>
       </c>
       <c r="D4" t="n">
-        <v>48.83488845825195</v>
+        <v>46.04896926879883</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>45.70190048217773</v>
+        <v>43.39655685424805</v>
       </c>
       <c r="C5" t="n">
-        <v>43.68910980224609</v>
+        <v>40.59769821166992</v>
       </c>
       <c r="D5" t="n">
-        <v>47.71469116210938</v>
+        <v>46.19541549682617</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>45.25894927978516</v>
+        <v>43.45526885986328</v>
       </c>
       <c r="C6" t="n">
-        <v>43.4621467590332</v>
+        <v>41.17374420166016</v>
       </c>
       <c r="D6" t="n">
-        <v>47.05575180053711</v>
+        <v>45.73679351806641</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>44.76738357543945</v>
+        <v>43.66526412963867</v>
       </c>
       <c r="C7" t="n">
-        <v>42.74623870849609</v>
+        <v>41.23356628417969</v>
       </c>
       <c r="D7" t="n">
-        <v>46.78852844238281</v>
+        <v>46.09696197509766</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>45.11183929443359</v>
+        <v>43.96166229248047</v>
       </c>
       <c r="C8" t="n">
-        <v>43.36109161376953</v>
+        <v>41.80056762695312</v>
       </c>
       <c r="D8" t="n">
-        <v>46.86258697509766</v>
+        <v>46.12275695800781</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>44.73302459716797</v>
+        <v>43.99916839599609</v>
       </c>
       <c r="C9" t="n">
-        <v>42.52042007446289</v>
+        <v>41.87607192993164</v>
       </c>
       <c r="D9" t="n">
-        <v>46.94562911987305</v>
+        <v>46.12226486206055</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>45.19306564331055</v>
+        <v>43.69879913330078</v>
       </c>
       <c r="C10" t="n">
-        <v>42.26420974731445</v>
+        <v>40.84106063842773</v>
       </c>
       <c r="D10" t="n">
-        <v>48.12192153930664</v>
+        <v>46.55653762817383</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>45.23875427246094</v>
+        <v>43.59667587280273</v>
       </c>
       <c r="C11" t="n">
-        <v>42.68350601196289</v>
+        <v>41.2086181640625</v>
       </c>
       <c r="D11" t="n">
-        <v>47.79400253295898</v>
+        <v>45.98473358154297</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>45.08285140991211</v>
+        <v>43.69706726074219</v>
       </c>
       <c r="C12" t="n">
-        <v>42.35281372070312</v>
+        <v>41.34747695922852</v>
       </c>
       <c r="D12" t="n">
-        <v>47.81288909912109</v>
+        <v>46.04665756225586</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>45.67722320556641</v>
+        <v>43.61507797241211</v>
       </c>
       <c r="C13" t="n">
-        <v>42.2236442565918</v>
+        <v>41.38134765625</v>
       </c>
       <c r="D13" t="n">
-        <v>49.13080215454102</v>
+        <v>45.84880828857422</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>46.07349395751953</v>
+        <v>43.43573760986328</v>
       </c>
       <c r="C14" t="n">
-        <v>41.92884063720703</v>
+        <v>40.51414489746094</v>
       </c>
       <c r="D14" t="n">
-        <v>50.21814727783203</v>
+        <v>46.35733032226562</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>45.80449295043945</v>
+        <v>43.47566223144531</v>
       </c>
       <c r="C15" t="n">
-        <v>41.96957015991211</v>
+        <v>40.81045913696289</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6394157409668</v>
+        <v>46.14086532592773</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>45.72442626953125</v>
+        <v>42.92248916625977</v>
       </c>
       <c r="C16" t="n">
-        <v>42.94026947021484</v>
+        <v>39.74208831787109</v>
       </c>
       <c r="D16" t="n">
-        <v>48.50858306884766</v>
+        <v>46.10289001464844</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>46.02956390380859</v>
+        <v>43.57911682128906</v>
       </c>
       <c r="C17" t="n">
-        <v>42.60303497314453</v>
+        <v>40.20813369750977</v>
       </c>
       <c r="D17" t="n">
-        <v>49.45609283447266</v>
+        <v>46.95009994506836</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>46.04749298095703</v>
+        <v>43.5137939453125</v>
       </c>
       <c r="C18" t="n">
-        <v>43.54765319824219</v>
+        <v>40.72007369995117</v>
       </c>
       <c r="D18" t="n">
-        <v>48.54733276367188</v>
+        <v>46.30751419067383</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>46.08756256103516</v>
+        <v>43.80805587768555</v>
       </c>
       <c r="C19" t="n">
-        <v>42.65810012817383</v>
+        <v>41.17987060546875</v>
       </c>
       <c r="D19" t="n">
-        <v>49.51702499389648</v>
+        <v>46.43624114990234</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>46.40229797363281</v>
+        <v>42.97362518310547</v>
       </c>
       <c r="C20" t="n">
-        <v>43.41454315185547</v>
+        <v>40.39706039428711</v>
       </c>
       <c r="D20" t="n">
-        <v>49.39005279541016</v>
+        <v>45.55018997192383</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>46.43930816650391</v>
+        <v>43.08763122558594</v>
       </c>
       <c r="C21" t="n">
-        <v>43.22737121582031</v>
+        <v>39.6397819519043</v>
       </c>
       <c r="D21" t="n">
-        <v>49.6512451171875</v>
+        <v>46.53548049926758</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>46.09009552001953</v>
+        <v>43.40703582763672</v>
       </c>
       <c r="C22" t="n">
-        <v>42.038818359375</v>
+        <v>39.97817611694336</v>
       </c>
       <c r="D22" t="n">
-        <v>50.14137268066406</v>
+        <v>46.83589553833008</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>45.88726806640625</v>
+        <v>43.29973602294922</v>
       </c>
       <c r="C23" t="n">
-        <v>42.73434066772461</v>
+        <v>41.42785263061523</v>
       </c>
       <c r="D23" t="n">
-        <v>49.04019546508789</v>
+        <v>45.1716194152832</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>45.32842254638672</v>
+        <v>43.21146774291992</v>
       </c>
       <c r="C24" t="n">
-        <v>42.47632598876953</v>
+        <v>39.72972869873047</v>
       </c>
       <c r="D24" t="n">
-        <v>48.18051910400391</v>
+        <v>46.69320678710938</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>45.86675262451172</v>
+        <v>43.3515625</v>
       </c>
       <c r="C25" t="n">
-        <v>43.84744262695312</v>
+        <v>40.66108703613281</v>
       </c>
       <c r="D25" t="n">
-        <v>47.88606262207031</v>
+        <v>46.04203796386719</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>45.96875762939453</v>
+        <v>44.39291381835938</v>
       </c>
       <c r="C26" t="n">
-        <v>44.32070922851562</v>
+        <v>40.80658721923828</v>
       </c>
       <c r="D26" t="n">
-        <v>47.61680603027344</v>
+        <v>47.97924041748047</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>46.29001617431641</v>
+        <v>43.54101943969727</v>
       </c>
       <c r="C27" t="n">
-        <v>44.72845077514648</v>
+        <v>39.95365905761719</v>
       </c>
       <c r="D27" t="n">
-        <v>47.85158157348633</v>
+        <v>47.12837982177734</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>46.46607971191406</v>
+        <v>42.58211517333984</v>
       </c>
       <c r="C28" t="n">
-        <v>43.7181282043457</v>
+        <v>38.57291412353516</v>
       </c>
       <c r="D28" t="n">
-        <v>49.21403121948242</v>
+        <v>46.59131622314453</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>45.29338455200195</v>
+        <v>42.68069458007812</v>
       </c>
       <c r="C29" t="n">
-        <v>42.76917266845703</v>
+        <v>39.05602645874023</v>
       </c>
       <c r="D29" t="n">
-        <v>47.81759643554688</v>
+        <v>46.30536270141602</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>45.91536712646484</v>
+        <v>42.91083526611328</v>
       </c>
       <c r="C30" t="n">
-        <v>42.26841354370117</v>
+        <v>40.11968231201172</v>
       </c>
       <c r="D30" t="n">
-        <v>49.56232070922852</v>
+        <v>45.70198822021484</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>45.52866744995117</v>
+        <v>42.70465850830078</v>
       </c>
       <c r="C31" t="n">
-        <v>41.75293350219727</v>
+        <v>38.95423889160156</v>
       </c>
       <c r="D31" t="n">
-        <v>49.30440139770508</v>
+        <v>46.455078125</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>45.88655853271484</v>
+        <v>43.00661468505859</v>
       </c>
       <c r="C32" t="n">
-        <v>42.98367309570312</v>
+        <v>40.37980651855469</v>
       </c>
       <c r="D32" t="n">
-        <v>48.78944396972656</v>
+        <v>45.6334228515625</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>45.58890533447266</v>
+        <v>42.35769271850586</v>
       </c>
       <c r="C33" t="n">
-        <v>43.50100326538086</v>
+        <v>39.16378402709961</v>
       </c>
       <c r="D33" t="n">
-        <v>47.67680740356445</v>
+        <v>45.55160140991211</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>45.75238800048828</v>
+        <v>43.12013244628906</v>
       </c>
       <c r="C34" t="n">
-        <v>42.06665420532227</v>
+        <v>40.50934219360352</v>
       </c>
       <c r="D34" t="n">
-        <v>49.4381217956543</v>
+        <v>45.73092269897461</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>45.67073822021484</v>
+        <v>42.94710159301758</v>
       </c>
       <c r="C35" t="n">
-        <v>42.86289215087891</v>
+        <v>40.54800796508789</v>
       </c>
       <c r="D35" t="n">
-        <v>48.47858428955078</v>
+        <v>45.34619522094727</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>42.1220142364502</v>
+        <v>45.06917953491211</v>
       </c>
       <c r="C2" t="n">
-        <v>38.2653567477914</v>
+        <v>43.28367866961251</v>
       </c>
       <c r="D2" t="n">
-        <v>45.978671725109</v>
+        <v>46.85468040021171</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>38.04829635620117</v>
+        <v>43.76670227050781</v>
       </c>
       <c r="C3" t="n">
-        <v>36.49819161434684</v>
+        <v>38.94944883594841</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5984010980555</v>
+        <v>48.58395570506722</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>40.90368156433105</v>
+        <v>45.45476417541504</v>
       </c>
       <c r="C4" t="n">
-        <v>37.60099998122899</v>
+        <v>41.87005039877024</v>
       </c>
       <c r="D4" t="n">
-        <v>44.20636314743311</v>
+        <v>49.03947795205983</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>42.44850769042969</v>
+        <v>40.81433906555176</v>
       </c>
       <c r="C5" t="n">
-        <v>39.93851552670599</v>
+        <v>38.35599664797537</v>
       </c>
       <c r="D5" t="n">
-        <v>44.95849985415338</v>
+        <v>43.27268148312815</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>46.27708587646485</v>
+        <v>43.4978630065918</v>
       </c>
       <c r="C6" t="n">
-        <v>41.53684587981301</v>
+        <v>40.09087735223257</v>
       </c>
       <c r="D6" t="n">
-        <v>51.01732587311668</v>
+        <v>46.90484866095102</v>
       </c>
     </row>
   </sheetData>
